--- a/workingfolder/python/tables/spf_joint_est_moments.xlsx
+++ b/workingfolder/python/tables/spf_joint_est_moments.xlsx
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.145593404769897</v>
+        <v>-6.988130962781725E-08</v>
       </c>
       <c r="C2">
         <v>1.144723534584045</v>
@@ -532,60 +532,492 @@
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>-0.0007063166991173719</v>
+      </c>
+      <c r="F3">
+        <v>0.0005234280742637722</v>
+      </c>
+      <c r="G3">
+        <v>0.0003433014305587195</v>
+      </c>
+      <c r="H3">
+        <v>0.0009409900507647346</v>
+      </c>
+      <c r="I3">
+        <v>4.770647812532526E-07</v>
+      </c>
+      <c r="J3">
+        <v>4.497263649919632E-07</v>
+      </c>
+      <c r="K3">
+        <v>0.002097823931623929</v>
+      </c>
+      <c r="L3">
+        <v>5.225441820439758E-09</v>
+      </c>
+      <c r="M3">
+        <v>3.934983426307987E-09</v>
+      </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.252525252525252</v>
+      </c>
+      <c r="D4">
+        <v>0.247474747474747</v>
+      </c>
+      <c r="E4">
+        <v>-0.006323887507055811</v>
+      </c>
+      <c r="F4">
+        <v>0.01301996818610838</v>
+      </c>
+      <c r="G4">
+        <v>0.008470320293531447</v>
+      </c>
+      <c r="H4">
+        <v>0.01756716503656709</v>
+      </c>
+      <c r="I4">
+        <v>0.0001789228060869995</v>
+      </c>
+      <c r="J4">
+        <v>0.000164526812178966</v>
+      </c>
+      <c r="K4">
+        <v>0.04302632986889662</v>
+      </c>
+      <c r="L4">
+        <v>1.709752113614707E-06</v>
+      </c>
+      <c r="M4">
+        <v>1.247776857399013E-06</v>
+      </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.252525252525252</v>
+      </c>
+      <c r="D5">
+        <v>0.247474747474747</v>
+      </c>
+      <c r="E5">
+        <v>-0.006323887507055811</v>
+      </c>
+      <c r="F5">
+        <v>0.01301996818610838</v>
+      </c>
+      <c r="G5">
+        <v>0.008470320293531447</v>
+      </c>
+      <c r="H5">
+        <v>0.01756716503656709</v>
+      </c>
+      <c r="I5">
+        <v>0.0001789228060869995</v>
+      </c>
+      <c r="J5">
+        <v>0.000164526812178966</v>
+      </c>
+      <c r="K5">
+        <v>0.04302632986889662</v>
+      </c>
+      <c r="L5">
+        <v>1.709752113614707E-06</v>
+      </c>
+      <c r="M5">
+        <v>1.247776857399013E-06</v>
+      </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0.1571023579585537</v>
+      </c>
+      <c r="F7">
+        <v>0.07512575127821451</v>
+      </c>
+      <c r="G7">
+        <v>0.07183542636234121</v>
+      </c>
+      <c r="H7">
+        <v>0.03726666135395587</v>
+      </c>
+      <c r="I7">
+        <v>8.187448177777457E-06</v>
+      </c>
+      <c r="J7">
+        <v>7.781342782182737E-06</v>
+      </c>
+      <c r="K7">
+        <v>0.1509626341426867</v>
+      </c>
+      <c r="L7">
+        <v>1.109335647967048E-31</v>
+      </c>
+      <c r="M7">
+        <v>1.111716196567835E-31</v>
+      </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0.7600000000000002</v>
+      </c>
+      <c r="D9">
+        <v>0.6840000000000003</v>
+      </c>
+      <c r="E9">
+        <v>0.006997874510246208</v>
+      </c>
+      <c r="F9">
+        <v>0.7400460062287872</v>
+      </c>
+      <c r="G9">
+        <v>-0.06472226579351217</v>
+      </c>
+      <c r="H9">
+        <v>0.9755162690526452</v>
+      </c>
+      <c r="I9">
+        <v>1.701166841299321</v>
+      </c>
+      <c r="J9">
+        <v>-0.1230740437405012</v>
+      </c>
+      <c r="K9">
+        <v>0.1443999999999991</v>
+      </c>
+      <c r="L9">
+        <v>1.733336949948512E-31</v>
+      </c>
+      <c r="M9">
+        <v>1.737056557137243E-31</v>
+      </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.7600000000000002</v>
+      </c>
+      <c r="D10">
+        <v>0.6840000000000003</v>
+      </c>
+      <c r="E10">
+        <v>0.007000127162957136</v>
+      </c>
+      <c r="F10">
+        <v>0.7402230114369622</v>
+      </c>
+      <c r="G10">
+        <v>-0.06473684335022185</v>
+      </c>
+      <c r="H10">
+        <v>0.07064339511985977</v>
+      </c>
+      <c r="I10">
+        <v>0.008921153296147446</v>
+      </c>
+      <c r="J10">
+        <v>-0.0006454172420543787</v>
+      </c>
+      <c r="K10">
+        <v>0.1443999999999991</v>
+      </c>
+      <c r="L10">
+        <v>1.733336949948512E-31</v>
+      </c>
+      <c r="M10">
+        <v>1.737056557137243E-31</v>
+      </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0.8847368421052633</v>
+      </c>
+      <c r="D11">
+        <v>0.796263157894737</v>
+      </c>
+      <c r="E11">
+        <v>0.007552768781085297</v>
+      </c>
+      <c r="F11">
+        <v>0.861713907358402</v>
+      </c>
+      <c r="G11">
+        <v>-0.07536193467570843</v>
+      </c>
+      <c r="H11">
+        <v>0.08223791357097242</v>
+      </c>
+      <c r="I11">
+        <v>0.01208988145582584</v>
+      </c>
+      <c r="J11">
+        <v>-0.0008746647083570679</v>
+      </c>
+      <c r="K11">
+        <v>0.1680999999999999</v>
+      </c>
+      <c r="L11">
+        <v>1.232595164407831E-32</v>
+      </c>
+      <c r="M11">
+        <v>1.235240218408706E-32</v>
+      </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0.1494619134827799</v>
+      </c>
+      <c r="F12">
+        <v>0.06019618153569198</v>
+      </c>
+      <c r="G12">
+        <v>0.05702181709899352</v>
+      </c>
+      <c r="H12">
+        <v>0.02395582196303462</v>
+      </c>
+      <c r="I12">
+        <v>3.110343802961913E-06</v>
+      </c>
+      <c r="J12">
+        <v>2.910382855321007E-06</v>
+      </c>
+      <c r="K12">
+        <v>0.1091977290837823</v>
+      </c>
+      <c r="L12">
+        <v>1.294995294605977E-30</v>
+      </c>
+      <c r="M12">
+        <v>1.26631423015305E-30</v>
+      </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0.1436233330666425</v>
+      </c>
+      <c r="F13">
+        <v>0.1005881602729378</v>
+      </c>
+      <c r="G13">
+        <v>0.09123126571988853</v>
+      </c>
+      <c r="H13">
+        <v>0.1004196530123883</v>
+      </c>
+      <c r="I13">
+        <v>4.662032970098705E-05</v>
+      </c>
+      <c r="J13">
+        <v>3.940689327751749E-05</v>
+      </c>
+      <c r="K13">
+        <v>0.166987643059551</v>
+      </c>
+      <c r="L13">
+        <v>7.703719777548943E-34</v>
+      </c>
+      <c r="M13">
+        <v>7.720251365054413E-34</v>
+      </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0.5025125628140698</v>
+      </c>
+      <c r="D14">
+        <v>0.497487437185929</v>
+      </c>
+      <c r="E14">
+        <v>0.1390245789549215</v>
+      </c>
+      <c r="F14">
+        <v>0.1193383307848196</v>
+      </c>
+      <c r="G14">
+        <v>0.1076045980978656</v>
+      </c>
+      <c r="H14">
+        <v>0.08877800613908313</v>
+      </c>
+      <c r="I14">
+        <v>3.613158088627324E-05</v>
+      </c>
+      <c r="J14">
+        <v>2.994404435883512E-05</v>
+      </c>
+      <c r="K14">
+        <v>0.1760537530080297</v>
+      </c>
+      <c r="L14">
+        <v>4.437342591868191E-31</v>
+      </c>
+      <c r="M14">
+        <v>4.446864786271342E-31</v>
       </c>
     </row>
   </sheetData>
